--- a/cronograma.xlsx
+++ b/cronograma.xlsx
@@ -356,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -388,6 +388,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,19 +434,12 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,7 +747,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,14 +765,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -839,14 +845,14 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -869,15 +875,15 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="25">
         <v>0.375</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
@@ -923,14 +929,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1025,13 +1031,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="33">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -1040,9 +1046,9 @@
       <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="21"/>
       <c r="E20" s="5" t="s">
         <v>11</v>
       </c>
@@ -1062,7 +1068,7 @@
       <c r="A22" s="11"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="E22" s="34"/>
+      <c r="E22" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
